--- a/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-7.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-7.xlsx
@@ -939,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
